--- a/biology/Zoologie/Austrochaperina_hooglandi/Austrochaperina_hooglandi.xlsx
+++ b/biology/Zoologie/Austrochaperina_hooglandi/Austrochaperina_hooglandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrochaperina hooglandi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrochaperina hooglandi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle n'est connue que dans trois zones fortement séparées, les monts Adelbert, Hunstein et Schrader, dans les provinces de Madang et de Sandaun. Toutefois elle pourrait avoir une répartition plus importante notamment entre ces trois sites. Elle est présente entre 600 et 1 370 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle n'est connue que dans trois zones fortement séparées, les monts Adelbert, Hunstein et Schrader, dans les provinces de Madang et de Sandaun. Toutefois elle pourrait avoir une répartition plus importante notamment entre ces trois sites. Elle est présente entre 600 et 1 370 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrochaperina hooglandi mesure environ 40 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrochaperina hooglandi mesure environ 40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, hooglandi, lui a été donné en référence à Ruurd D. Hoogland (1922-1994) à qui l'on doit l'holotype[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, hooglandi, lui a été donné en référence à Ruurd D. Hoogland (1922-1994) à qui l'on doit l'holotype,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zweifel, 1967 : A systematic review of the microhylid frogs of Australia. American Museum novitates, no 2309, p. 1-6 (texte intégral).</t>
         </is>
